--- a/data/sources/opal/core/2_1_non_rep.xlsx
+++ b/data/sources/opal/core/2_1_non_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fkelpin/git/molgenis-js-catalogue-exporter/data/sources/opal/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43D96F0-D21B-D648-B6B2-99D3526E9637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758281A3-9F53-3D41-BA03-FF6D7BCA0B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -2183,9 +2183,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>=&gt;4</t>
-  </si>
-  <si>
     <t>Yes (Planned, partly planned)</t>
   </si>
   <si>
@@ -2577,13 +2574,16 @@
   </si>
   <si>
     <t>2_1_core_non_rep</t>
+  </si>
+  <si>
+    <t>&gt;=4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3026,11 +3026,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A231" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
@@ -3040,9 +3040,9 @@
     <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3057,9 +3057,9 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -3074,39 +3074,39 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -3121,9 +3121,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -3138,9 +3138,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -3155,9 +3155,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -3172,9 +3172,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -3189,9 +3189,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -3206,9 +3206,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -3223,9 +3223,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -3240,9 +3240,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -3257,9 +3257,9 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -3274,9 +3274,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -3291,9 +3291,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -3308,9 +3308,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
@@ -3325,9 +3325,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -3342,9 +3342,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -3359,9 +3359,9 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -3376,9 +3376,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
@@ -3393,9 +3393,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -3410,9 +3410,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
@@ -3427,9 +3427,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -3444,9 +3444,9 @@
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -3461,9 +3461,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
@@ -3478,9 +3478,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
@@ -3495,9 +3495,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -3512,9 +3512,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
@@ -3529,9 +3529,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -3546,9 +3546,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
@@ -3563,9 +3563,9 @@
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
@@ -3580,9 +3580,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -3597,9 +3597,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -3614,9 +3614,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -3631,9 +3631,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -3648,9 +3648,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -3665,9 +3665,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -3682,9 +3682,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -3699,9 +3699,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -3716,9 +3716,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -3733,9 +3733,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -3750,9 +3750,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -3767,9 +3767,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -3784,9 +3784,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -3801,9 +3801,9 @@
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -3818,9 +3818,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -3835,9 +3835,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -3852,9 +3852,9 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -3869,9 +3869,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -3886,9 +3886,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
@@ -3903,9 +3903,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
@@ -3920,9 +3920,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>52</v>
@@ -3937,9 +3937,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>53</v>
@@ -3954,9 +3954,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>54</v>
@@ -3971,9 +3971,9 @@
         <v>406</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>55</v>
@@ -3988,9 +3988,9 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>56</v>
@@ -4005,9 +4005,9 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>57</v>
@@ -4022,9 +4022,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>58</v>
@@ -4039,9 +4039,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>59</v>
@@ -4056,9 +4056,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>60</v>
@@ -4073,9 +4073,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>61</v>
@@ -4090,9 +4090,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>62</v>
@@ -4107,9 +4107,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>63</v>
@@ -4124,9 +4124,9 @@
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>64</v>
@@ -4141,9 +4141,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>65</v>
@@ -4158,9 +4158,9 @@
         <v>417</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>66</v>
@@ -4175,9 +4175,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>67</v>
@@ -4192,9 +4192,9 @@
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>68</v>
@@ -4209,9 +4209,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>69</v>
@@ -4226,9 +4226,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>70</v>
@@ -4243,9 +4243,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>71</v>
@@ -4260,9 +4260,9 @@
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>72</v>
@@ -4277,9 +4277,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>73</v>
@@ -4294,9 +4294,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>74</v>
@@ -4311,9 +4311,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>75</v>
@@ -4328,9 +4328,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
@@ -4345,9 +4345,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>77</v>
@@ -4362,9 +4362,9 @@
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>78</v>
@@ -4379,9 +4379,9 @@
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>79</v>
@@ -4396,9 +4396,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>80</v>
@@ -4413,9 +4413,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>81</v>
@@ -4430,9 +4430,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>82</v>
@@ -4447,9 +4447,9 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>83</v>
@@ -4464,9 +4464,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>84</v>
@@ -4481,9 +4481,9 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>85</v>
@@ -4498,9 +4498,9 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>86</v>
@@ -4515,9 +4515,9 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>87</v>
@@ -4532,9 +4532,9 @@
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>88</v>
@@ -4549,9 +4549,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>89</v>
@@ -4566,9 +4566,9 @@
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>90</v>
@@ -4583,9 +4583,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>91</v>
@@ -4600,9 +4600,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>92</v>
@@ -4617,9 +4617,9 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>93</v>
@@ -4634,9 +4634,9 @@
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>94</v>
@@ -4651,9 +4651,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>95</v>
@@ -4668,9 +4668,9 @@
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>96</v>
@@ -4685,9 +4685,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>97</v>
@@ -4702,9 +4702,9 @@
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>98</v>
@@ -4719,9 +4719,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>99</v>
@@ -4736,9 +4736,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>100</v>
@@ -4753,9 +4753,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>101</v>
@@ -4770,9 +4770,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -4787,9 +4787,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>103</v>
@@ -4804,9 +4804,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -4821,9 +4821,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>106</v>
@@ -4838,9 +4838,9 @@
         <v>458</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>107</v>
@@ -4855,9 +4855,9 @@
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>108</v>
@@ -4872,9 +4872,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>109</v>
@@ -4889,9 +4889,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>110</v>
@@ -4906,9 +4906,9 @@
         <v>462</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>111</v>
@@ -4923,9 +4923,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>112</v>
@@ -4940,9 +4940,9 @@
         <v>464</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>113</v>
@@ -4957,9 +4957,9 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>114</v>
@@ -4974,9 +4974,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>115</v>
@@ -4991,12 +4991,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>313</v>
@@ -5008,9 +5008,9 @@
         <v>468</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>116</v>
@@ -5025,9 +5025,9 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>117</v>
@@ -5042,9 +5042,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>118</v>
@@ -5059,9 +5059,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>119</v>
@@ -5076,9 +5076,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>120</v>
@@ -5093,9 +5093,9 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>121</v>
@@ -5110,9 +5110,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>122</v>
@@ -5127,9 +5127,9 @@
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>123</v>
@@ -5144,9 +5144,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>124</v>
@@ -5161,9 +5161,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>125</v>
@@ -5178,9 +5178,9 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>126</v>
@@ -5195,9 +5195,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>127</v>
@@ -5212,9 +5212,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>128</v>
@@ -5229,9 +5229,9 @@
         <v>481</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>129</v>
@@ -5246,9 +5246,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>130</v>
@@ -5263,9 +5263,9 @@
         <v>483</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>131</v>
@@ -5280,9 +5280,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>132</v>
@@ -5297,9 +5297,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>133</v>
@@ -5314,9 +5314,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>134</v>
@@ -5331,9 +5331,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>135</v>
@@ -5348,9 +5348,9 @@
         <v>488</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>136</v>
@@ -5365,9 +5365,9 @@
         <v>489</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>137</v>
@@ -5382,9 +5382,9 @@
         <v>490</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>138</v>
@@ -5399,9 +5399,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>139</v>
@@ -5416,9 +5416,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>140</v>
@@ -5433,9 +5433,9 @@
         <v>493</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>141</v>
@@ -5450,9 +5450,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>142</v>
@@ -5467,9 +5467,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>143</v>
@@ -5484,9 +5484,9 @@
         <v>496</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>144</v>
@@ -5501,9 +5501,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>145</v>
@@ -5518,9 +5518,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>146</v>
@@ -5535,9 +5535,9 @@
         <v>499</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>147</v>
@@ -5552,9 +5552,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>148</v>
@@ -5569,9 +5569,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>149</v>
@@ -5586,9 +5586,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>150</v>
@@ -5603,9 +5603,9 @@
         <v>503</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>151</v>
@@ -5620,9 +5620,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>152</v>
@@ -5637,9 +5637,9 @@
         <v>504</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>153</v>
@@ -5654,9 +5654,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>154</v>
@@ -5671,9 +5671,9 @@
         <v>506</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>155</v>
@@ -5688,9 +5688,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>156</v>
@@ -5705,9 +5705,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>157</v>
@@ -5722,9 +5722,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>158</v>
@@ -5739,9 +5739,9 @@
         <v>510</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>159</v>
@@ -5756,9 +5756,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>160</v>
@@ -5773,9 +5773,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>161</v>
@@ -5790,9 +5790,9 @@
         <v>513</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>162</v>
@@ -5807,9 +5807,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>163</v>
@@ -5824,9 +5824,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>164</v>
@@ -5841,9 +5841,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>165</v>
@@ -5858,9 +5858,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>166</v>
@@ -5875,9 +5875,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>167</v>
@@ -5892,9 +5892,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>168</v>
@@ -5909,9 +5909,9 @@
         <v>520</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>169</v>
@@ -5926,9 +5926,9 @@
         <v>521</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>170</v>
@@ -5943,9 +5943,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>171</v>
@@ -5960,9 +5960,9 @@
         <v>523</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>172</v>
@@ -5977,9 +5977,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>173</v>
@@ -5994,9 +5994,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>174</v>
@@ -6011,9 +6011,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>175</v>
@@ -6028,9 +6028,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>176</v>
@@ -6045,9 +6045,9 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>177</v>
@@ -6062,9 +6062,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>178</v>
@@ -6079,9 +6079,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>179</v>
@@ -6096,9 +6096,9 @@
         <v>531</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>180</v>
@@ -6113,9 +6113,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>181</v>
@@ -6130,9 +6130,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>182</v>
@@ -6147,9 +6147,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>183</v>
@@ -6164,9 +6164,9 @@
         <v>535</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>184</v>
@@ -6181,9 +6181,9 @@
         <v>536</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>185</v>
@@ -6198,9 +6198,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>186</v>
@@ -6215,9 +6215,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>187</v>
@@ -6232,9 +6232,9 @@
         <v>539</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>188</v>
@@ -6249,9 +6249,9 @@
         <v>540</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>189</v>
@@ -6266,9 +6266,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>190</v>
@@ -6283,9 +6283,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>191</v>
@@ -6300,9 +6300,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>192</v>
@@ -6317,9 +6317,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>193</v>
@@ -6334,9 +6334,9 @@
         <v>545</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>194</v>
@@ -6351,9 +6351,9 @@
         <v>546</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>195</v>
@@ -6368,9 +6368,9 @@
         <v>547</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>196</v>
@@ -6385,9 +6385,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>197</v>
@@ -6402,9 +6402,9 @@
         <v>549</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>198</v>
@@ -6419,9 +6419,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>199</v>
@@ -6436,9 +6436,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>200</v>
@@ -6453,9 +6453,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>201</v>
@@ -6470,9 +6470,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>202</v>
@@ -6487,9 +6487,9 @@
         <v>554</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>203</v>
@@ -6504,9 +6504,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>204</v>
@@ -6521,9 +6521,9 @@
         <v>556</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>205</v>
@@ -6538,9 +6538,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>206</v>
@@ -6555,9 +6555,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>207</v>
@@ -6572,9 +6572,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>208</v>
@@ -6589,9 +6589,9 @@
         <v>560</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>209</v>
@@ -6606,9 +6606,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>210</v>
@@ -6623,9 +6623,9 @@
         <v>562</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>211</v>
@@ -6640,9 +6640,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>212</v>
@@ -6657,9 +6657,9 @@
         <v>564</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>213</v>
@@ -6674,9 +6674,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>214</v>
@@ -6691,9 +6691,9 @@
         <v>566</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>215</v>
@@ -6708,9 +6708,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>216</v>
@@ -6725,9 +6725,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>217</v>
@@ -6742,9 +6742,9 @@
         <v>569</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>218</v>
@@ -6759,9 +6759,9 @@
         <v>570</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>219</v>
@@ -6776,9 +6776,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>220</v>
@@ -6793,9 +6793,9 @@
         <v>572</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>221</v>
@@ -6810,9 +6810,9 @@
         <v>573</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>222</v>
@@ -6827,9 +6827,9 @@
         <v>574</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>223</v>
@@ -6844,9 +6844,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>224</v>
@@ -6861,9 +6861,9 @@
         <v>576</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>225</v>
@@ -6878,9 +6878,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>226</v>
@@ -6895,9 +6895,9 @@
         <v>578</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>227</v>
@@ -6912,9 +6912,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>228</v>
@@ -6929,9 +6929,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>229</v>
@@ -6946,9 +6946,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>230</v>
@@ -6963,9 +6963,9 @@
         <v>582</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>231</v>
@@ -6980,9 +6980,9 @@
         <v>583</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>232</v>
@@ -6997,9 +6997,9 @@
         <v>584</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>233</v>
@@ -7014,9 +7014,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>234</v>
@@ -7031,9 +7031,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>235</v>
@@ -7048,9 +7048,9 @@
         <v>587</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>236</v>
@@ -7065,9 +7065,9 @@
         <v>588</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>237</v>
@@ -7082,9 +7082,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>238</v>
@@ -7099,9 +7099,9 @@
         <v>590</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>239</v>
@@ -7116,9 +7116,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>240</v>
@@ -7133,9 +7133,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>241</v>
@@ -7150,9 +7150,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>242</v>
@@ -7167,9 +7167,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>243</v>
@@ -7184,9 +7184,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>244</v>
@@ -7201,9 +7201,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>245</v>
@@ -7218,9 +7218,9 @@
         <v>597</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>246</v>
@@ -7235,9 +7235,9 @@
         <v>598</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>247</v>
@@ -7252,9 +7252,9 @@
         <v>599</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>248</v>
@@ -7269,9 +7269,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>249</v>
@@ -7286,9 +7286,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>250</v>
@@ -7303,9 +7303,9 @@
         <v>602</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>251</v>
@@ -7320,9 +7320,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>252</v>
@@ -7337,9 +7337,9 @@
         <v>604</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>253</v>
@@ -7354,9 +7354,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>254</v>
@@ -7371,9 +7371,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>255</v>
@@ -7388,9 +7388,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>256</v>
@@ -7405,9 +7405,9 @@
         <v>608</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>257</v>
@@ -7422,9 +7422,9 @@
         <v>609</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>258</v>
@@ -7439,9 +7439,9 @@
         <v>610</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>259</v>
@@ -7456,9 +7456,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>260</v>
@@ -7473,9 +7473,9 @@
         <v>612</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>261</v>
@@ -7490,9 +7490,9 @@
         <v>613</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>262</v>
@@ -7507,9 +7507,9 @@
         <v>614</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>263</v>
@@ -7524,9 +7524,9 @@
         <v>615</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" customHeight="1">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>264</v>
@@ -7541,9 +7541,9 @@
         <v>616</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>265</v>
@@ -7558,9 +7558,9 @@
         <v>617</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>266</v>
@@ -7575,9 +7575,9 @@
         <v>618</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" customHeight="1">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>267</v>
@@ -7592,9 +7592,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>268</v>
@@ -7609,9 +7609,9 @@
         <v>620</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>269</v>
@@ -7626,9 +7626,9 @@
         <v>621</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>270</v>
@@ -7643,9 +7643,9 @@
         <v>622</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>271</v>
@@ -7660,9 +7660,9 @@
         <v>623</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" customHeight="1">
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>272</v>
@@ -7677,9 +7677,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" customHeight="1">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>273</v>
@@ -7694,9 +7694,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" customHeight="1">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>274</v>
@@ -7711,9 +7711,9 @@
         <v>626</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" customHeight="1">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>275</v>
@@ -7728,9 +7728,9 @@
         <v>626</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" customHeight="1">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>276</v>
@@ -7745,9 +7745,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" customHeight="1">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>277</v>
@@ -7762,9 +7762,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>278</v>
@@ -7779,9 +7779,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" customHeight="1">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>279</v>
@@ -7796,9 +7796,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" customHeight="1">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>280</v>
@@ -7813,9 +7813,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" customHeight="1">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>281</v>
@@ -7830,9 +7830,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>282</v>
@@ -7847,9 +7847,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>283</v>
@@ -7864,9 +7864,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>284</v>
@@ -7881,9 +7881,9 @@
         <v>633</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>285</v>
@@ -7898,9 +7898,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>286</v>
@@ -7915,9 +7915,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>287</v>
@@ -7932,9 +7932,9 @@
         <v>617</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>288</v>
@@ -7949,9 +7949,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>289</v>
@@ -7966,9 +7966,9 @@
         <v>636</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>290</v>
@@ -7983,9 +7983,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>291</v>
@@ -8000,9 +8000,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>292</v>
@@ -8017,9 +8017,9 @@
         <v>638</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>293</v>
@@ -8034,9 +8034,9 @@
         <v>638</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>294</v>
@@ -8051,9 +8051,9 @@
         <v>639</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>295</v>
@@ -8068,9 +8068,9 @@
         <v>640</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>296</v>
@@ -8085,9 +8085,9 @@
         <v>641</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>297</v>
@@ -8102,9 +8102,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>298</v>
@@ -8119,9 +8119,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>299</v>
@@ -8136,9 +8136,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>300</v>
@@ -8153,9 +8153,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>301</v>
@@ -8170,9 +8170,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>302</v>
@@ -8187,9 +8187,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>303</v>
@@ -8204,9 +8204,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>304</v>
@@ -8221,9 +8221,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>305</v>
@@ -8238,9 +8238,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>306</v>
@@ -8255,9 +8255,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>307</v>
@@ -8272,9 +8272,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>308</v>
@@ -8289,9 +8289,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>309</v>
@@ -8306,9 +8306,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>310</v>
@@ -8323,9 +8323,9 @@
         <v>649</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>311</v>
@@ -8340,9 +8340,9 @@
         <v>650</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>104</v>
@@ -8357,12 +8357,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>313</v>
@@ -8371,32 +8371,32 @@
         <v>316</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>313</v>
@@ -8405,32 +8405,32 @@
         <v>316</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>313</v>
@@ -8439,15 +8439,15 @@
         <v>316</v>
       </c>
       <c r="E318" s="8" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>313</v>
@@ -8456,15 +8456,15 @@
         <v>316</v>
       </c>
       <c r="E319" s="8" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>313</v>
@@ -8473,15 +8473,15 @@
         <v>316</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>313</v>
@@ -8490,15 +8490,15 @@
         <v>316</v>
       </c>
       <c r="E321" s="7" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>313</v>
@@ -8507,15 +8507,15 @@
         <v>316</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>313</v>
@@ -8524,15 +8524,15 @@
         <v>316</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>313</v>
@@ -8541,15 +8541,15 @@
         <v>316</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>313</v>
@@ -8558,15 +8558,15 @@
         <v>316</v>
       </c>
       <c r="E325" s="7" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>313</v>
@@ -8575,15 +8575,15 @@
         <v>316</v>
       </c>
       <c r="E326" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>845</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1">
-      <c r="A327" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>313</v>
@@ -8592,15 +8592,15 @@
         <v>316</v>
       </c>
       <c r="E327" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>847</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1">
-      <c r="A328" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>313</v>
@@ -8609,7 +8609,7 @@
         <v>316</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -8624,12 +8624,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
@@ -8638,7 +8638,7 @@
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>651</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>14</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>20</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>20</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>23</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>23</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>25</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>26</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>27</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>28</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>28</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>29</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>29</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>30</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>30</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>31</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>31</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>32</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>32</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>33</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>34</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>34</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>35</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>35</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>36</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>36</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>37</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>37</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>37</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>38</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>38</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>39</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>39</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>39</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>40</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>40</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>41</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>41</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>41</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>41</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>42</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>42</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>43</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>43</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>43</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>43</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>44</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>44</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>45</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>46</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>46</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>47</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>47</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>47</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>47</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>47</v>
       </c>
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>48</v>
       </c>
@@ -10259,10 +10259,10 @@
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>48</v>
       </c>
@@ -10273,10 +10273,10 @@
         <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>49</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>50</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>50</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>51</v>
       </c>
@@ -10343,10 +10343,10 @@
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>51</v>
       </c>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>51</v>
       </c>
@@ -10371,10 +10371,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>51</v>
       </c>
@@ -10385,10 +10385,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>51</v>
       </c>
@@ -10399,10 +10399,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>51</v>
       </c>
@@ -10413,10 +10413,10 @@
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>52</v>
       </c>
@@ -10427,10 +10427,10 @@
         <v>0</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>52</v>
       </c>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>52</v>
       </c>
@@ -10455,10 +10455,10 @@
         <v>0</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>52</v>
       </c>
@@ -10469,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>52</v>
       </c>
@@ -10483,10 +10483,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>53</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>55</v>
       </c>
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>55</v>
       </c>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>55</v>
       </c>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>55</v>
       </c>
@@ -10609,10 +10609,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>56</v>
       </c>
@@ -10623,10 +10623,10 @@
         <v>0</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
@@ -10637,10 +10637,10 @@
         <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>56</v>
       </c>
@@ -10651,10 +10651,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>57</v>
       </c>
@@ -10665,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>57</v>
       </c>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>57</v>
       </c>
@@ -10693,10 +10693,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>58</v>
       </c>
@@ -10707,10 +10707,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
@@ -10721,10 +10721,10 @@
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
@@ -10735,10 +10735,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>59</v>
       </c>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>59</v>
       </c>
@@ -10763,10 +10763,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>59</v>
       </c>
@@ -10777,10 +10777,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>59</v>
       </c>
@@ -10791,10 +10791,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>63</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>63</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>65</v>
       </c>
@@ -10833,10 +10833,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>65</v>
       </c>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>65</v>
       </c>
@@ -10861,10 +10861,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>65</v>
       </c>
@@ -10875,10 +10875,10 @@
         <v>0</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>67</v>
       </c>
@@ -10889,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>67</v>
       </c>
@@ -10903,10 +10903,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>67</v>
       </c>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>68</v>
       </c>
@@ -10931,10 +10931,10 @@
         <v>0</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>68</v>
       </c>
@@ -10945,10 +10945,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>68</v>
       </c>
@@ -10959,10 +10959,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>68</v>
       </c>
@@ -10973,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>70</v>
       </c>
@@ -10987,10 +10987,10 @@
         <v>0</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>70</v>
       </c>
@@ -11001,10 +11001,10 @@
         <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>70</v>
       </c>
@@ -11015,10 +11015,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>71</v>
       </c>
@@ -11029,10 +11029,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>71</v>
       </c>
@@ -11043,10 +11043,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>71</v>
       </c>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>71</v>
       </c>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>72</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>72</v>
       </c>
@@ -11099,10 +11099,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>72</v>
       </c>
@@ -11113,10 +11113,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>72</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>73</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>73</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>74</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>74</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1">
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>75</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>75</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>76</v>
       </c>
@@ -11225,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>76</v>
       </c>
@@ -11239,10 +11239,10 @@
         <v>0</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>76</v>
       </c>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>77</v>
       </c>
@@ -11267,10 +11267,10 @@
         <v>0</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>77</v>
       </c>
@@ -11281,10 +11281,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>77</v>
       </c>
@@ -11295,10 +11295,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>77</v>
       </c>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>81</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1">
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>81</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>82</v>
       </c>
@@ -11351,10 +11351,10 @@
         <v>0</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>82</v>
       </c>
@@ -11365,10 +11365,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>83</v>
       </c>
@@ -11379,10 +11379,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>83</v>
       </c>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>83</v>
       </c>
@@ -11407,10 +11407,10 @@
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>91</v>
       </c>
@@ -11421,10 +11421,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>91</v>
       </c>
@@ -11435,10 +11435,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>91</v>
       </c>
@@ -11449,10 +11449,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>93</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1">
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>93</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>94</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>94</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>95</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>95</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>96</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>96</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>96</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>96</v>
       </c>
@@ -11589,10 +11589,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>96</v>
       </c>
@@ -11603,10 +11603,10 @@
         <v>0</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>97</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>97</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>101</v>
       </c>
@@ -11645,10 +11645,10 @@
         <v>0</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>101</v>
       </c>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>115</v>
       </c>
@@ -11673,10 +11673,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>115</v>
       </c>
@@ -11687,10 +11687,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>115</v>
       </c>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>115</v>
       </c>
@@ -11715,10 +11715,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>115</v>
       </c>
@@ -11729,12 +11729,12 @@
         <v>0</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B222" s="3">
         <v>1</v>
@@ -11743,12 +11743,12 @@
         <v>0</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B223" s="3">
         <v>2</v>
@@ -11757,12 +11757,12 @@
         <v>0</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B224" s="3">
         <v>3</v>
@@ -11771,12 +11771,12 @@
         <v>0</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B225" s="3">
         <v>4</v>
@@ -11785,12 +11785,12 @@
         <v>0</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B226" s="3">
         <v>5</v>
@@ -11799,10 +11799,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>116</v>
       </c>
@@ -11813,10 +11813,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>116</v>
       </c>
@@ -11827,10 +11827,10 @@
         <v>0</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>116</v>
       </c>
@@ -11841,10 +11841,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>116</v>
       </c>
@@ -11855,10 +11855,10 @@
         <v>0</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>116</v>
       </c>
@@ -11869,10 +11869,10 @@
         <v>0</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>116</v>
       </c>
@@ -11883,10 +11883,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>116</v>
       </c>
@@ -11897,10 +11897,10 @@
         <v>0</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>116</v>
       </c>
@@ -11911,10 +11911,10 @@
         <v>0</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>116</v>
       </c>
@@ -11925,10 +11925,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>116</v>
       </c>
@@ -11939,10 +11939,10 @@
         <v>0</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>117</v>
       </c>
@@ -11953,10 +11953,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>117</v>
       </c>
@@ -11967,10 +11967,10 @@
         <v>0</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>117</v>
       </c>
@@ -11981,10 +11981,10 @@
         <v>0</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>117</v>
       </c>
@@ -11995,10 +11995,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>117</v>
       </c>
@@ -12009,10 +12009,10 @@
         <v>0</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>117</v>
       </c>
@@ -12023,10 +12023,10 @@
         <v>0</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>117</v>
       </c>
@@ -12037,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>117</v>
       </c>
@@ -12051,10 +12051,10 @@
         <v>0</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>117</v>
       </c>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>117</v>
       </c>
@@ -12079,10 +12079,10 @@
         <v>0</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>120</v>
       </c>
@@ -12093,10 +12093,10 @@
         <v>0</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>120</v>
       </c>
@@ -12107,10 +12107,10 @@
         <v>0</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>120</v>
       </c>
@@ -12121,10 +12121,10 @@
         <v>0</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>120</v>
       </c>
@@ -12135,10 +12135,10 @@
         <v>0</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>120</v>
       </c>
@@ -12149,10 +12149,10 @@
         <v>0</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>120</v>
       </c>
@@ -12163,10 +12163,10 @@
         <v>0</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>120</v>
       </c>
@@ -12177,10 +12177,10 @@
         <v>0</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>120</v>
       </c>
@@ -12191,10 +12191,10 @@
         <v>0</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>120</v>
       </c>
@@ -12205,10 +12205,10 @@
         <v>0</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>120</v>
       </c>
@@ -12219,10 +12219,10 @@
         <v>0</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>120</v>
       </c>
@@ -12233,10 +12233,10 @@
         <v>0</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>120</v>
       </c>
@@ -12247,10 +12247,10 @@
         <v>0</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>120</v>
       </c>
@@ -12261,10 +12261,10 @@
         <v>0</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>120</v>
       </c>
@@ -12275,10 +12275,10 @@
         <v>0</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>120</v>
       </c>
@@ -12289,10 +12289,10 @@
         <v>0</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>120</v>
       </c>
@@ -12303,10 +12303,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>174</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>174</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>175</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>175</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>182</v>
       </c>
@@ -12373,10 +12373,10 @@
         <v>0</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>182</v>
       </c>
@@ -12387,10 +12387,10 @@
         <v>0</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>182</v>
       </c>
@@ -12401,10 +12401,10 @@
         <v>0</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>182</v>
       </c>
@@ -12415,10 +12415,10 @@
         <v>0</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>182</v>
       </c>
@@ -12429,10 +12429,10 @@
         <v>0</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>182</v>
       </c>
@@ -12443,10 +12443,10 @@
         <v>0</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>181</v>
       </c>
@@ -12457,10 +12457,10 @@
         <v>0</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>181</v>
       </c>
@@ -12471,10 +12471,10 @@
         <v>0</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>181</v>
       </c>
@@ -12485,10 +12485,10 @@
         <v>0</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>181</v>
       </c>
@@ -12499,10 +12499,10 @@
         <v>0</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>181</v>
       </c>
@@ -12513,10 +12513,10 @@
         <v>0</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>181</v>
       </c>
@@ -12527,10 +12527,10 @@
         <v>0</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>184</v>
       </c>
@@ -12541,10 +12541,10 @@
         <v>0</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>184</v>
       </c>
@@ -12555,10 +12555,10 @@
         <v>0</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>184</v>
       </c>
@@ -12569,10 +12569,10 @@
         <v>0</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>185</v>
       </c>
@@ -12583,10 +12583,10 @@
         <v>0</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>185</v>
       </c>
@@ -12597,10 +12597,10 @@
         <v>0</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>185</v>
       </c>
@@ -12611,10 +12611,10 @@
         <v>0</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>185</v>
       </c>
@@ -12625,10 +12625,10 @@
         <v>0</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>185</v>
       </c>
@@ -12639,10 +12639,10 @@
         <v>0</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>220</v>
       </c>
@@ -12653,10 +12653,10 @@
         <v>0</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>220</v>
       </c>
@@ -12667,10 +12667,10 @@
         <v>0</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>220</v>
       </c>
@@ -12681,10 +12681,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>240</v>
       </c>
@@ -12695,10 +12695,10 @@
         <v>0</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>240</v>
       </c>
@@ -12709,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>240</v>
       </c>
@@ -12723,10 +12723,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>260</v>
       </c>
@@ -12737,10 +12737,10 @@
         <v>0</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>260</v>
       </c>
@@ -12751,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>260</v>
       </c>
@@ -12765,10 +12765,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>309</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>309</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>310</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>310</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>311</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>311</v>
       </c>
@@ -12852,9 +12852,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B302" s="3">
         <v>0</v>
@@ -12866,9 +12866,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1">
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B303" s="5">
         <v>1</v>
@@ -12880,9 +12880,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B304" s="5">
         <v>0</v>
@@ -12894,9 +12894,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B305" s="5">
         <v>1</v>
@@ -12908,9 +12908,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B306" s="5">
         <v>0</v>
@@ -12922,9 +12922,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B307" s="5">
         <v>1</v>
@@ -12936,9 +12936,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B308" s="5">
         <v>0</v>
@@ -12950,9 +12950,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B309" s="5">
         <v>1</v>
@@ -12964,9 +12964,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B310" s="5">
         <v>0</v>
@@ -12978,9 +12978,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B311" s="5">
         <v>1</v>
@@ -12992,9 +12992,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B312" s="5">
         <v>0</v>
@@ -13006,9 +13006,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B313" s="5">
         <v>1</v>
@@ -13020,9 +13020,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B314" s="5">
         <v>0</v>
@@ -13034,9 +13034,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B315" s="5">
         <v>1</v>
@@ -13048,9 +13048,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B316" s="5">
         <v>0</v>
@@ -13062,9 +13062,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B317" s="5">
         <v>1</v>
@@ -13076,9 +13076,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B318" s="5">
         <v>0</v>
@@ -13090,9 +13090,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1">
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B319" s="5">
         <v>1</v>
@@ -13104,9 +13104,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1">
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B320" s="5">
         <v>0</v>
@@ -13118,9 +13118,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1">
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B321" s="5">
         <v>1</v>
@@ -13132,9 +13132,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B322" s="5">
         <v>0</v>
@@ -13146,9 +13146,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1">
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B323" s="5">
         <v>1</v>
@@ -13160,9 +13160,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B324" s="5">
         <v>0</v>
@@ -13174,9 +13174,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B325" s="5">
         <v>1</v>
@@ -13188,9 +13188,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B326" s="5">
         <v>0</v>
@@ -13202,9 +13202,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B327" s="5">
         <v>1</v>
